--- a/biology/Médecine/Paul-Jean_Coulier/Paul-Jean_Coulier.xlsx
+++ b/biology/Médecine/Paul-Jean_Coulier/Paul-Jean_Coulier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul-Jean Constant Coulier est un pharmacien et chimiste français, né le 31 août 1824 à Paris et mort le 23 juillet 1890 à Saint-Jean-de-Braye[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul-Jean Constant Coulier est un pharmacien et chimiste français, né le 31 août 1824 à Paris et mort le 23 juillet 1890 à Saint-Jean-de-Braye.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pharmacien inspecteur militaire, Paul-Jean Coulier a soutenu sa thèse à Paris le 14 août 1849. Il devient pharmacien major de seconde classe en 1855. Il est ensuite professeur agrégé de chimie et de toxicologie au Val-de-Grâce, à partir de 1852, puis titulaire de 1859 à 1875. Il est président de l'Académie nationale de pharmacie en 1876. 
 Coulier était connu pour sa défense du corps pharmaceutique et son opposition farouche à la subordination des pharmaciens aux médecins.
@@ -543,11 +557,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Balance de précision dite de Coulier
-Utilisation des empreintes digitales[2]
-Chimie atmosphérique[3]
+Utilisation des empreintes digitales
+Chimie atmosphérique
 Physique appliquée à l'analyse : étuves, baromètres, thermomètres, aéromètres, spectroscopes, microscopes
 Hygiène</t>
         </is>
@@ -577,9 +593,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Commandeur de la Légion d'honneur[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Commandeur de la Légion d'honneur.</t>
         </is>
       </c>
     </row>
@@ -607,7 +625,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Description générale des phares et fanaux et des principales remorques existant sur le littoral maritime du globe à l'usage des navigateurs, Paris, Robiquet, 1850.
 Question de la céruse et du blanc de zinc, envisagée sous les rapports de l'hygiène et des intérêts publics, Paris,  Baillière, 1852.
@@ -622,7 +642,7 @@
 Ventilation économique et chauffage des cafés et salles d'asile, Lille, Danel, 1872.
 Vérification de l'aréomètre de Baumé, avec Marcellin Berthelot et Joseph-Charles d'Almeida, Paris, Gauthier-Villars, 1873.
 Note sur la nouvelle propriété de l'air, 1875.
-Discours prononcés aux funérailles d'Henri Buignet[5], avec Alfred Riche et Antoine Baudoin Poggiale, Paris, Arnous de Rivière, 1876.
+Discours prononcés aux funérailles d'Henri Buignet, avec Alfred Riche et Antoine Baudoin Poggiale, Paris, Arnous de Rivière, 1876.
 Notice nécrologique sur Antoine Baudoin Poggiale, pharmacien inspecteur en retraite, Paris, Rozier, 1879.
 Funérailles d'Antoine Baudoin  Poggiale, discours de Paul-Jean Coulier, Paris, Arnous de Rivière, 1879.
 Hippophagie, Paris, Masson, 1888.</t>
